--- a/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
+++ b/pcmt-vaxprequal/StructureDefinition-PreQualDB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T08:33:29+00:00</t>
+    <t>2025-09-16T20:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -255,9 +252,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>PreQualDB.dateOfPrequal</t>
@@ -623,7 +617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -667,7 +661,6 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -779,9 +772,6 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -796,22 +786,22 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -868,30 +858,27 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -899,28 +886,28 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -971,30 +958,27 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1002,10 +986,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1017,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1074,30 +1058,27 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1105,10 +1086,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1120,13 +1101,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1177,30 +1158,27 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1208,10 +1186,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1223,13 +1201,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1280,30 +1258,27 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1311,10 +1286,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1326,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1383,30 +1358,27 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1414,10 +1386,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1429,13 +1401,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1486,30 +1458,27 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1517,10 +1486,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1532,13 +1501,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1589,21 +1558,18 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
     </row>
